--- a/Planilhas/Calculando KPIs.xlsx
+++ b/Planilhas/Calculando KPIs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\escola de formação de lideres\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\escola de formação de lideres\git\efl\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C5B94B-4B3E-4F3E-B5A8-3F6DD4C4EA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B46C3B-8EEC-4AC6-9D93-83D57AE752F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{594CD7DE-8618-4376-8CD3-10D6F4F1FC03}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{594CD7DE-8618-4376-8CD3-10D6F4F1FC03}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>CALCULANDO KPI's</t>
   </si>
@@ -85,6 +94,9 @@
   </si>
   <si>
     <t>CA</t>
+  </si>
+  <si>
+    <t>MINUTOS</t>
   </si>
 </sst>
 </file>
@@ -513,278 +525,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7102208-0398-492D-A686-6ED3520AA110}">
-  <dimension ref="A2:G17"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
-        <v>8</v>
+      <c r="B6" s="5">
+        <v>96000</v>
       </c>
       <c r="C6" s="6">
         <v>12000</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6"/>
+      <c r="E6" s="7">
         <v>3000</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6" s="7">
         <v>1650</v>
       </c>
-      <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
-        <v>6</v>
+      <c r="B7" s="5">
+        <v>84000</v>
       </c>
       <c r="C7" s="6">
         <v>14000</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6"/>
+      <c r="E7" s="7">
         <v>2802</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="7">
         <v>1260</v>
       </c>
-      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
-        <v>10</v>
+      <c r="B8" s="5">
+        <v>100000</v>
       </c>
       <c r="C8" s="6">
         <v>10000</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6"/>
+      <c r="E8" s="7">
         <v>3000</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8" s="7">
         <v>1950</v>
       </c>
-      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
-        <v>8</v>
+      <c r="B9" s="5">
+        <v>100000</v>
       </c>
       <c r="C9" s="6">
         <v>12500</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6"/>
+      <c r="E9" s="7">
         <v>3099</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <v>1797</v>
       </c>
-      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
-        <v>10</v>
+      <c r="B10" s="5">
+        <v>98000</v>
       </c>
       <c r="C10" s="6">
         <v>9800</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6"/>
+      <c r="E10" s="7">
         <v>3150</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10" s="7">
         <v>2080</v>
       </c>
-      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
-        <v>15</v>
+      <c r="B11" s="5">
+        <v>93000</v>
       </c>
       <c r="C11" s="6">
         <v>6200</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6"/>
+      <c r="E11" s="7">
         <v>2170</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11" s="7">
         <v>1562</v>
       </c>
-      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
-        <v>9</v>
+      <c r="B12" s="5">
+        <v>103500</v>
       </c>
       <c r="C12" s="6">
         <v>11500</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6"/>
+      <c r="E12" s="7">
         <v>3220</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12" s="7">
         <v>2000</v>
       </c>
-      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
-        <v>8</v>
+      <c r="B13" s="5">
+        <v>94800</v>
       </c>
       <c r="C13" s="6">
         <v>11850</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6"/>
+      <c r="E13" s="7">
         <v>3200</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13" s="7">
         <v>1930</v>
       </c>
-      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
-        <v>5</v>
+      <c r="B14" s="5">
+        <v>83750</v>
       </c>
       <c r="C14" s="6">
         <v>16750</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6"/>
+      <c r="E14" s="7">
         <v>3266</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14" s="7">
         <v>1560</v>
       </c>
-      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
-        <v>7</v>
+      <c r="B15" s="5">
+        <v>91700</v>
       </c>
       <c r="C15" s="6">
         <v>13100</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6"/>
+      <c r="E15" s="7">
         <v>3015</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15" s="7">
         <v>1306</v>
       </c>
-      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
-        <v>9</v>
+      <c r="B16" s="5">
+        <v>104400</v>
       </c>
       <c r="C16" s="6">
         <v>11600</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6"/>
+      <c r="E16" s="7">
         <v>3306</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F16" s="7">
         <v>2115</v>
       </c>
-      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
-        <v>11</v>
+      <c r="B17" s="5">
+        <v>101200</v>
       </c>
       <c r="C17" s="6">
         <v>9200</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6"/>
+      <c r="E17" s="7">
         <v>2990</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17" s="7">
         <v>2152</v>
       </c>
-      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
